--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="3" shapeId="0">
+    <comment ref="C16" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="4" shapeId="0">
+    <comment ref="C21" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="129">
   <si>
     <t>Programming Fundamentals</t>
   </si>
@@ -337,15 +337,6 @@
   </si>
   <si>
     <t>assesment</t>
-  </si>
-  <si>
-    <t>on Formation</t>
-  </si>
-  <si>
-    <t>for the Assessment Tools</t>
-  </si>
-  <si>
-    <t>Continuous improvement plan</t>
   </si>
   <si>
     <t>- At the beginning of these topic, an introduction of predicate calculus should be delivered to the students, and basic exercises should be apply, so the students feel comfortable with that knowledge forgotten 
@@ -586,6 +577,15 @@
   </si>
   <si>
     <t>Course name</t>
+  </si>
+  <si>
+    <t>improvement</t>
+  </si>
+  <si>
+    <t>assessment</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2068,7 +2068,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2084,16 +2084,16 @@
         <v>60</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2103,10 +2103,14 @@
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="E2" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2117,13 +2121,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -2134,13 +2138,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -2148,16 +2152,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -2165,16 +2169,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -2185,13 +2189,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2202,27 +2206,31 @@
         <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
@@ -2232,186 +2240,214 @@
         <v>29</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>19</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>23</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="B20" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">

--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -16,7 +16,7 @@
     <sheet name="recommendations" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ActualizacionSO!$B$1:$F$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ActualizacionSO!$A$1:$F$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">recommendations!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,112 +28,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>tc={C411DEC1-B4D0-4B58-A355-72A7617B71ED}</author>
-    <author>tc={787F0D5F-8AF7-4285-8997-9B754DF7011C}</author>
-    <author>tc={ACEE74AA-30AB-4853-8DF5-AAA2FD866200}</author>
-    <author>tc={7B85EAF7-82FD-4DE1-8BAC-0F6572884977}</author>
-    <author>tc={6BE96759-6B12-4E77-ADBB-9EDA6AB352D7}</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Revisar el SO H
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Recomendacion [1] puesta en la pestaña de Generales
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Recomendacion [2] puesta en la pestaña de Generales
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="3" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Las recomendaciones estaban en español
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="4" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Recomendacion puesta en la pestaña de Generales
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="121">
   <si>
     <t>Programming Fundamentals</t>
   </si>
@@ -264,9 +160,6 @@
     <t>Desarrollo de Aplicaciones Web</t>
   </si>
   <si>
-    <t>Information System</t>
-  </si>
-  <si>
     <t>Sistemas de Información</t>
   </si>
   <si>
@@ -312,9 +205,6 @@
     <t>Ingeniería de Software II</t>
   </si>
   <si>
-    <t>Problem Solving using Applied Computer Sciences </t>
-  </si>
-  <si>
     <t>idx</t>
   </si>
   <si>
@@ -334,9 +224,6 @@
   </si>
   <si>
     <t>formation</t>
-  </si>
-  <si>
-    <t>assesment</t>
   </si>
   <si>
     <t>- At the beginning of these topic, an introduction of predicate calculus should be delivered to the students, and basic exercises should be apply, so the students feel comfortable with that knowledge forgotten 
@@ -430,10 +317,6 @@
     <t>Change the rubric’s second criterion</t>
   </si>
   <si>
-    <t>- Programming courses that are at the initial level should empathize the importance of quality assurance as part of software development fundamentals. These courses should use tools to evaluate the quality of code generated by students to improve their skills to produce high quality software.
-- Use case studies of ethical dilemma in classes to identify ethical problems, consequences, direct and indirect interested parties. Students need to face real problems of ethical dilemma to comprehend ethical and professional responsibility[2]</t>
-  </si>
-  <si>
     <t>- Analyze different tools to evaluate software quality and use the best skills to measure development fundamentals. 
 - If a group project is used to measure the ability to design a program. It is suggested to introduce some extra independent modules and assign each of these modules to each student, in order to clearly identify the work of every student.
 - Review the rubric to improve the assessment of the criterion 2</t>
@@ -524,16 +407,6 @@
 Complement the measurement of criterion 3 by asking students, as a form to defend their design, to formulate a question that the computational solution may answer in another context or in the future.</t>
   </si>
   <si>
-    <t>Use real cases in English
-Review and correct your reports as well as your presentations
-Send reading tasks about articles in newspapers of the first world of technology.
-Hacer más ejercicios durante el curso con los presentados en esta medición.
-Identificar a los estudiantes que están en desarrollo para que mejoren su
-habilidad de comunicación.
-Motivar a los estudiantes que en el manejo de proyectos, la comunicación forma_x000D_
-parte de éxito del mismo.</t>
-  </si>
-  <si>
     <t>Analyze real cases about the application of technologies in society
 Send reading papers in first world newspapers about technology applications
 Realizar dos mediciones uno al inicio y otro al final del curso, para notar la_x000D_
@@ -543,30 +416,9 @@
     <t>Discrete Mathematics</t>
   </si>
   <si>
-    <t>Methodology of Research in Computing</t>
-  </si>
-  <si>
-    <t>Information Assurance and Security</t>
-  </si>
-  <si>
-    <t>Data structures</t>
-  </si>
-  <si>
-    <t>Distributed systems</t>
-  </si>
-  <si>
     <t>Software Design</t>
   </si>
   <si>
-    <t>COMPUTER ENGINEERING CAPSTONE COURSE</t>
-  </si>
-  <si>
-    <t>Problem Solving Using Applied Computer Science</t>
-  </si>
-  <si>
-    <t>Web Application Development</t>
-  </si>
-  <si>
     <t>Analysis of Algorithms</t>
   </si>
   <si>
@@ -585,7 +437,24 @@
     <t>assessment</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Problem Solving using Applied  Computer Sciences </t>
+  </si>
+  <si>
+    <t>- Programming courses that are at the initial level should empathize the importance of quality assurance as part of software development fundamentals. These courses should use tools to evaluate the quality of code generated by students to improve their skills to produce high quality software.
+- Use case studies of ethical dilemma in classes to identify ethical problems, consequences, direct and indirect interested parties. Students need to face real problems of ethical dilemma to comprehend ethical and professional responsibility</t>
+  </si>
+  <si>
+    <t>Capstone Course</t>
+  </si>
+  <si>
+    <t>Use real cases
+Review and correct reports and presentations
+Send reading tasks about articles in newspapers of the first world of technology.
+Identify students in developing stage to improve their communication skills.
+Motivate students that in project management, communication is part of project success.</t>
+  </si>
+  <si>
+    <t>"-"</t>
   </si>
 </sst>
 </file>
@@ -640,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -655,14 +524,20 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -958,62 +833,56 @@
     <col min="6" max="6" width="34.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>IF(B2=B3,A2,A2+1)</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1025,58 +894,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A52" si="0">IF(B3=B4,A3,A3+1)</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>IF(B5=B6,A5,A5+1)</f>
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1088,16 +957,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1109,157 +978,157 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="0"/>
         <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1268,34 +1137,34 @@
         <v>24</v>
       </c>
       <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
       <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1304,10 +1173,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -1325,19 +1194,19 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1346,19 +1215,19 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1367,19 +1236,19 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1388,19 +1257,19 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1409,19 +1278,19 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
         <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1430,10 +1299,10 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1448,22 +1317,22 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1472,40 +1341,40 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1514,10 +1383,10 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
+        <v>112</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -1535,19 +1404,19 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
+        <v>112</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1556,19 +1425,19 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1577,40 +1446,40 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1619,82 +1488,82 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="B34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34">
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34">
+      <c r="B35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35">
         <v>7</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>10</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1703,19 +1572,19 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1724,19 +1593,19 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1745,19 +1614,19 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1766,40 +1635,40 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
         <v>17</v>
       </c>
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40">
-        <v>5</v>
-      </c>
-      <c r="E40" t="s">
-        <v>4</v>
-      </c>
       <c r="F40" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1808,19 +1677,19 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1829,19 +1698,19 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
         <v>4</v>
       </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1850,19 +1719,19 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1871,19 +1740,19 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1892,19 +1761,19 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1913,19 +1782,19 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1934,19 +1803,19 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1955,10 +1824,10 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D48">
         <v>6</v>
@@ -1976,19 +1845,19 @@
         <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1997,10 +1866,10 @@
         <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D50">
         <v>6</v>
@@ -2018,19 +1887,19 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
         <v>3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -2039,23 +1908,60 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>24</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F54" s="4"/>
+      <c r="A54">
+        <v>25</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2064,399 +1970,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="7"/>
-    <col min="2" max="2" width="41.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="27.453125" style="7" customWidth="1"/>
     <col min="6" max="16384" width="10.90625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>105</v>
+      <c r="B2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>108</v>
+      <c r="B3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>78</v>
+        <v>24</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>90</v>
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>83</v>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>128</v>
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>128</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>78</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>128</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>78</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>128</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>102</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>128</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>128</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
-        <v>19</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>78</v>
+        <v>18</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
-        <v>21</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>128</v>
+        <v>19</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
-        <v>22</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>128</v>
+        <v>20</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>23</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>128</v>
+      <c r="D22" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
     <sortState ref="A2:E22">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\apps\abetcomputacion\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Python Scripts\abetcomputacion\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0CCF94-D53D-4F70-957F-316BF0F2B1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActualizacionSO" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ActualizacionSO!$A$1:$F$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">recommendations!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -226,23 +235,7 @@
     <t>formation</t>
   </si>
   <si>
-    <t>- At the beginning of these topic, an introduction of predicate calculus should be delivered to the students, and basic exercises should be apply, so the students feel comfortable with that knowledge forgotten 
-- Develop this assignment two times (analysis and architecture). The first delivery should be the first version, so the student could see feedback of their homework. This is the only way students communicate with the teacher in a free and without stress way. The second delivery should be evaluated and will present a lot of improvements.
-- Remind students that basic courses, where they saw analysis and design, are related to every course in the career and therefore their ability in analysis and design is something that should grow and be maintained and updated over time. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- It should be better to have three different tools to measure each criterion. Although this tool (workshop) worked well, the time range between when students see the topics and the test application could affect the memory of them.
-- Inform the students about the rubric and the theme since the beginning of the semester, even if it is an activity that is seen in the second part of the semester.
-- Make breaks during class for the students to let them consult about the projects.
-- Ask for partial deliveries before the final delivery of the analyzes.
-- Teacher should present the first delivery of the project documentation in class. </t>
-  </si>
-  <si>
     <t>The teacher must be sure that the students take a few minutes to read carefully the instructions of the requested task before beginning the resolution; in such a way the students can have a preliminary idea of how to proceed. The students generally do not want to make the effort of reading comprehension, they ask to the teacher more explanation on how to perform the task.</t>
-  </si>
-  <si>
-    <t>- Students should be provided with immediate feedback of the requested task, so they can know their level and worry about overcoming deficiencies in their work. 
-- In order to avoid a possible forcing of all the criteria (evaluate the overall learning process), it is recommended that not all the criteria be measured with a single tool.</t>
   </si>
   <si>
     <t>Perform similar exercises of revision in the class, in such a way that the student becomes familiar with the writing, reading and solution of this type of exercises</t>
@@ -257,18 +250,6 @@
 Ask the students to rehearse with an automated assessment tool to improve their communication skills.</t>
   </si>
   <si>
-    <t>- Measure criterion 1 in the analysis phase of the research project to obtain richer results. This will help to better measure the ability of the students to analyze research projects and to identify their requirements.
-- Avoid socializing the rubric, when it comes to measurement, in order to keep the process as objective as possible
-	Use automated assessment tools for communication skills to measure the communication skills of the students
-	Ask more than one professor to grade the students. At least one of them should be a communication expert.</t>
-  </si>
-  <si>
-    <t>- Include class diagrams in all programming workshops and tasks as part of the grade. 
-- All workshops could have as a prerequisite the class diagram of the activity before students start programming
--Motivate students to explore all the characteristics of the tools they use in development. Many times, they base only on the contents reviewed with the teacher
--Include more qualified activities that allow students to get involved with current technological resources</t>
-  </si>
-  <si>
     <t>Encourage (eg, extra points) to students or groups that shown an excellent analysis in their projects
 For the assessment for the second criterion do not provide links to resources that could be used to prevent students from using only what is provided and encourage students to investigate on their own what they need to develop the activity.</t>
   </si>
@@ -276,70 +257,19 @@
     <t>Use a code analyzer tool, so students can get detailed feedback and improve their coding skills. Similar tools can be applied to evaluate code quality.</t>
   </si>
   <si>
-    <t>- Explain the difference between design and testing.
-- Do more stress-testing on workshops and homework. These could help student see how robust their implementations are, and how important it is to test correctness. 
-- Include design issues on workshops. Also, discuss design issues on relevant examples.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- For the implementation, set up a milestone list so that students know how far have they advanced in their implementation.
-- Set up a standardized evaluation report format. </t>
-  </si>
-  <si>
-    <t>- Doing workshops or projects with different and unfamiliar situations, so they can assign roles according to each one of team members’ skills
-- Creating new groups for each project or task to encourage them to get out of their comfort zones and learn how to work with a different team</t>
-  </si>
-  <si>
     <t>Avoid socializing the rubric, when it comes to measurement, in order to keep the process as objective as possible</t>
   </si>
   <si>
-    <t xml:space="preserve">Indexation and queries optimization workshops.  
-Projects should include  a client-server architecture.
-Analysis of  database engines during the optimization of queries, and autonomous works about SQL vs NoSQL. 
-A database server was requested and the loan of laboratories to support the project  architecture.
-Re-order syllabus to carry out more workshops with more complex queries. 
-Apply 'Design Thinking' techniques to get system requirements from clients.
-</t>
-  </si>
-  <si>
-    <t>- Having a set of tasks and projects where students are asked to create a different group each time, so they are encouraged to work together with students with different skills each time
-- Use an automated tool to organize the teams based on the skills, experience, and resources of each of the students
-- Along with the Software Engineering ACM code of ethics learned in the course, ask students to review the general ethical principles learned in previous courses</t>
-  </si>
-  <si>
-    <t>Plan a different type of workshop that intrinsically requires different types of roles
-- Suggest the people In charge of accreditation change the rubric.
-- In assessment instruments, avoid using words with similar meanings because this confuse students, for example: “honestidad” and “honradez</t>
-  </si>
-  <si>
     <t>Find a better language to explain and discuss Ethical issues during class. Using real examples is a good tool</t>
   </si>
   <si>
     <t>Change the rubric’s second criterion</t>
   </si>
   <si>
-    <t>- Analyze different tools to evaluate software quality and use the best skills to measure development fundamentals. 
-- If a group project is used to measure the ability to design a program. It is suggested to introduce some extra independent modules and assign each of these modules to each student, in order to clearly identify the work of every student.
-- Review the rubric to improve the assessment of the criterion 2</t>
-  </si>
-  <si>
-    <t>Use a code analyzer tool, so students can get detailed feedback and improve their coding skills. Similar tools can be applied to evaluate code quality.
-Course dictated in JAVA.
-OOP is a requirement for this course.
-Workshop/practice/tasks should be done with a dataset in which working with a list is not efficient for students to benchmark the data structures vs. the size of the data.</t>
-  </si>
-  <si>
-    <t>- Give the students the opportunity to improve their designs based on the provided feedback. Once the students understand what they did wrong, they will likely be able to propose a better design than the original one. This will also help with the confusion some had between when to use message queues or pubsub of RPCs.
-- Offer an optional extra 2- hour class in which the basics of performance evaluation of distributed systems is taught</t>
-  </si>
-  <si>
     <t>Provide a template for the design document; some students lost points due to not properly documenting their design decisions.</t>
   </si>
   <si>
     <t>To improve the process of implementing the proposed solution it is recommendable to create more activities to develop that skills during the course. In addition, the possibility of evaluating classmates’ solutions could benefit the students</t>
-  </si>
-  <si>
-    <t>- To improve the process of implementing the proposed solution it is recommendable to create more activities to develop that skills during the course. In addition, the possibility of evaluating classmates’ solutions could benefit the students 
-- Try to take the survey with a digital tool in order to avoid the team members influence each other</t>
   </si>
   <si>
     <t>The problem of students withdrawing from the course could be corrected if students are prevented from working full-time for a company or if they do so in a half-time maximum, otherwise, there is a high risk of not complying with the requirements of the project or of abandoning the course</t>
@@ -370,17 +300,7 @@
     <t>Improve the weekly monitoring of the project, detecting students who do not cooperate sufficiently with their group</t>
   </si>
   <si>
-    <t>Computer Labs should have adequate administration and configuration of servers to avoid infrastructure failures. 
-Include practice on installing a web server, generating an html file, and topics related to protocols (such as IP).</t>
-  </si>
-  <si>
     <t>Include more peer-reviewed activities throughout the course since it was noticed that these tasks improved the students’ abilities and awareness on different techniques, skills, and tools for computing practice used by other students.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reviewing the rubric's descriptors for initial levels since the given ones might be too basic.
-Analyze the possibility to share the level of assessment of the course with the students in addition to the grades given for the homework activities. This might improve their awareness on the assessed student outcome.
-Share with other colleagues this course findings.
-</t>
   </si>
   <si>
     <t xml:space="preserve">Workshops and different autonomous work to facilitate continuous learning. </t>
@@ -391,10 +311,6 @@
   </si>
   <si>
     <t>In order to improve the measurement tool instead of giving the student three questions and tell them to answer them, they can be used as a guide to write a short essay by doing this the answers could be more elaborated giving the students the opportunity to write as they believe is the best way to explain how does their project impacts in organizations and society</t>
-  </si>
-  <si>
-    <t>Tasks where students are exposed to configurations of a server to create their HTML CV and upload it to a local server. 
-Include tasks on topics related to protocols (such as IP).</t>
   </si>
   <si>
     <t>Request students that when formulating some type of design to solve a problem raised, identify and justify the positive and negative impacts that the design entails, as well as the added value it has for society
@@ -407,12 +323,6 @@
 Complement the measurement of criterion 3 by asking students, as a form to defend their design, to formulate a question that the computational solution may answer in another context or in the future.</t>
   </si>
   <si>
-    <t>Analyze real cases about the application of technologies in society
-Send reading papers in first world newspapers about technology applications
-Realizar dos mediciones uno al inicio y otro al final del curso, para notar la_x000D_
-diferencia en el aprendizaje.</t>
-  </si>
-  <si>
     <t>Discrete Mathematics</t>
   </si>
   <si>
@@ -438,10 +348,6 @@
   </si>
   <si>
     <t>Problem Solving using Applied  Computer Sciences </t>
-  </si>
-  <si>
-    <t>- Programming courses that are at the initial level should empathize the importance of quality assurance as part of software development fundamentals. These courses should use tools to evaluate the quality of code generated by students to improve their skills to produce high quality software.
-- Use case studies of ethical dilemma in classes to identify ethical problems, consequences, direct and indirect interested parties. Students need to face real problems of ethical dilemma to comprehend ethical and professional responsibility</t>
   </si>
   <si>
     <t>Capstone Course</t>
@@ -456,11 +362,111 @@
   <si>
     <t>"-"</t>
   </si>
+  <si>
+    <t>At the beginning of these topic, an introduction of predicate calculus should be delivered to the students, and basic exercises should be apply, so the students feel comfortable with that knowledge forgotten 
+Develop this assignment two times (analysis and architecture). The first delivery should be the first version, so the student could see feedback of their homework. This is the only way students communicate with the teacher in a free and without stress way. The second delivery should be evaluated and will present a lot of improvements.
+Remind students that basic courses, where they saw analysis and design, are related to every course in the career and therefore their ability in analysis and design is something that should grow and be maintained and updated over time. </t>
+  </si>
+  <si>
+    <t>Programming courses that are at the initial level should empathize the importance of quality assurance as part of software development fundamentals. These courses should use tools to evaluate the quality of code generated by students to improve their skills to produce high quality software.
+Use case studies of ethical dilemma in classes to identify ethical problems, consequences, direct and indirect interested parties. Students need to face real problems of ethical dilemma to comprehend ethical and professional responsibility</t>
+  </si>
+  <si>
+    <t>Doing workshops or projects with different and unfamiliar situations, so they can assign roles according to each one of team members’ skills
+Creating new groups for each project or task to encourage them to get out of their comfort zones and learn how to work with a different team</t>
+  </si>
+  <si>
+    <t>Give the students the opportunity to improve their designs based on the provided feedback. Once the students understand what they did wrong, they will likely be able to propose a better design than the original one. This will also help with the confusion some had between when to use message queues or pubsub of RPCs.
+Offer an optional extra 2- hour class in which the basics of performance evaluation of distributed systems is taught</t>
+  </si>
+  <si>
+    <t>Include class diagrams in all programming workshops and tasks as part of the grade. 
+All workshops could have as a prerequisite the class diagram of the activity before students start programming
+-Motivate students to explore all the characteristics of the tools they use in development. Many times, they base only on the contents reviewed with the teacher
+-Include more qualified activities that allow students to get involved with current technological resources</t>
+  </si>
+  <si>
+    <t>Having a set of tasks and projects where students are asked to create a different group each time, so they are encouraged to work together with students with different skills each time
+Use an automated tool to organize the teams based on the skills, experience, and resources of each of the students
+Along with the Software Engineering ACM code of ethics learned in the course, ask students to review the general ethical principles learned in previous courses</t>
+  </si>
+  <si>
+    <t>Explain the difference between design and testing.
+Do more stress-testing on workshops and homework. These could help student see how robust their implementations are, and how important it is to test correctness. 
+Include design issues on workshops. Also, discuss design issues on relevant examples.</t>
+  </si>
+  <si>
+    <t>Reviewing the rubric's descriptors for initial levels since the given ones might be too basic.
+Analyze the possibility to share the level of assessment of the course with the students in addition to the grades given for the homework activities. This might improve their awareness on the assessed student outcome.
+Share with other colleagues this course findings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should be better to have three different tools to measure each criterion. Although this tool (workshop) worked well, the time range between when students see the topics and the test application could affect the memory of them.
+Inform the students about the rubric and the theme since the beginning of the semester, even if it is an activity that is seen in the second part of the semester.
+Make breaks during class for the students to let them consult about the projects.
+Ask for partial deliveries before the final delivery of the analyzes.
+Teacher should present the first delivery of the project documentation in class. </t>
+  </si>
+  <si>
+    <t>Analyze real cases about the application of technologies in society
+Send reading papers in first world newspapers about technology applications
+Make two assessments, one at the beginning and one at the end of the course. This in order to notice the difference on the assesment.</t>
+  </si>
+  <si>
+    <t>Analyze different tools to evaluate software quality and use the best skills to measure development fundamentals. 
+If a group project is used to measure the ability to design a program. It is suggested to introduce some extra independent modules and assign each of these modules to each student, in order to clearly identify the work of every student.
+Review the rubric to improve the assessment of the criterion 2</t>
+  </si>
+  <si>
+    <t>Students should be provided with immediate feedback of the requested task, so they can know their level and worry about overcoming deficiencies in their work. 
+In order to avoid a possible forcing of all the criteria (evaluate the overall learning process), it is recommended that not all the criteria be measured with a single tool.</t>
+  </si>
+  <si>
+    <t>Measure criterion 1 in the analysis phase of the research project to obtain richer results. This will help to better measure the ability of the students to analyze research projects and to identify their requirements.
+Avoid socializing the rubric, when it comes to measurement, in order to keep the process as objective as possible
+Use automated assessment tools for communication skills to measure the communication skills of the students
+Ask more than one professor to grade the students. At least one of them should be a communication expert.</t>
+  </si>
+  <si>
+    <t>To improve the process of implementing the proposed solution it is recommendable to create more activities to develop that skills during the course. In addition, the possibility of evaluating classmates’ solutions could benefit the students 
+Try to take the survey with a digital tool in order to avoid the team members influence each other</t>
+  </si>
+  <si>
+    <t>Plan a different type of workshop that intrinsically requires different types of roles
+Suggest the people In charge of accreditation change the rubric.
+In assessment instruments, avoid using words with similar meanings because this confuse students, for example: “honestidad” and “honradez"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the implementation, set up a milestone list so that students know how far have they advanced in their implementation.
+Set up a standardized evaluation report format. </t>
+  </si>
+  <si>
+    <t>Tasks where students are exposed to configurations of a server to create their HTML CV and upload it to a local server. 
+Include tasks on topics related to protocols (such as IP).</t>
+  </si>
+  <si>
+    <t>Use a code analyzer tool, so students can get detailed feedback and improve their coding skills. Similar tools can be applied to evaluate code quality.
+Course dictated in JAVA.
+OOP is a requirement for this course.
+Workshop/practice/tasks should be done with a dataset in which working with a list is not efficient for students to benchmark the data structures vs. the size of the data.</t>
+  </si>
+  <si>
+    <t>Indexation and queries optimization workshops.  
+Projects should include  a client-server architecture.
+Analysis of  database engines during the optimization of queries, and autonomous works about SQL vs NoSQL. 
+A database server was requested and the loan of laboratories to support the project  architecture.
+Re-order syllabus to carry out more workshops with more complex queries. 
+Apply 'Design Thinking' techniques to get system requirements from clients.</t>
+  </si>
+  <si>
+    <t>Computer Labs should have adequate administration and configuration of servers to avoid infrastructure failures. 
+Include practice on installing a web server, generating an html file, and topics related to protocols (such as IP).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -533,11 +539,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,7 +830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -1362,7 +1374,7 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>43</v>
@@ -1383,7 +1395,7 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>43</v>
@@ -1404,7 +1416,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>43</v>
@@ -1530,7 +1542,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>16</v>
@@ -1551,7 +1563,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>16</v>
@@ -1928,19 +1940,19 @@
         <v>24</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -1948,19 +1960,19 @@
         <v>25</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1970,18 +1982,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="7"/>
     <col min="2" max="2" width="41.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="27.453125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="255.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="27.453125" style="7" customWidth="1"/>
     <col min="6" max="16384" width="10.90625" style="7"/>
   </cols>
   <sheetData>
@@ -1990,169 +2003,169 @@
         <v>58</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="232" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" ht="406" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>66</v>
+      <c r="C3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="232" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>107</v>
+      <c r="C5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>102</v>
+      <c r="C6" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="261" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>78</v>
+      <c r="C8" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>25</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>87</v>
+      <c r="C10" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -2163,13 +2176,13 @@
         <v>25</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -2180,64 +2193,64 @@
         <v>37</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>106</v>
+        <v>93</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>74</v>
+      <c r="C14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -2248,64 +2261,64 @@
         <v>0</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>18</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>72</v>
+      <c r="C17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>19</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>90</v>
+        <v>75</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>82</v>
+      <c r="C19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -2313,55 +2326,55 @@
         <v>21</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>22</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>77</v>
+      <c r="C21" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>23</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>96</v>
+      <c r="C22" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1">
-    <sortState ref="A2:E22">
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>

--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Python Scripts\abetcomputacion\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0CCF94-D53D-4F70-957F-316BF0F2B1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F330EF-59C4-40A8-9A6F-0B1C2308B0FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,16 +451,16 @@
 Workshop/practice/tasks should be done with a dataset in which working with a list is not efficient for students to benchmark the data structures vs. the size of the data.</t>
   </si>
   <si>
-    <t>Indexation and queries optimization workshops.  
-Projects should include  a client-server architecture.
-Analysis of  database engines during the optimization of queries, and autonomous works about SQL vs NoSQL. 
-A database server was requested and the loan of laboratories to support the project  architecture.
-Re-order syllabus to carry out more workshops with more complex queries. 
-Apply 'Design Thinking' techniques to get system requirements from clients.</t>
-  </si>
-  <si>
     <t>Computer Labs should have adequate administration and configuration of servers to avoid infrastructure failures. 
 Include practice on installing a web server, generating an html file, and topics related to protocols (such as IP).</t>
+  </si>
+  <si>
+    <t>Indexation and queries optimization workshops
+Projects should include  a client-server architecture
+Analysis of  database engines during the optimization of queries, and autonomous works about SQL vs NoSQL
+A database server was requested and the loan of laboratories to support the project  architecture
+Re-order syllabus to carry out more workshops with more complex queries
+Apply 'Design Thinking' techniques to get system requirements from clients</t>
   </si>
 </sst>
 </file>
@@ -1985,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2131,7 +2131,7 @@
         <v>71</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
@@ -2369,7 +2369,7 @@
         <v>82</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
